--- a/results/21_3_8 Experiment - Instance Based Sweeping/c1_s3_fgsm_iterations.xlsx
+++ b/results/21_3_8 Experiment - Instance Based Sweeping/c1_s3_fgsm_iterations.xlsx
@@ -438,19 +438,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7915000319480896</v>
+        <v>0.7970000505447388</v>
       </c>
       <c r="C2">
-        <v>0.7872500419616699</v>
+        <v>0.7885000705718994</v>
       </c>
       <c r="D2">
-        <v>0.7932500243186951</v>
+        <v>0.796750009059906</v>
       </c>
       <c r="E2">
-        <v>0.7972500324249268</v>
+        <v>0.8075000047683716</v>
       </c>
       <c r="F2">
-        <v>0.7970000505447388</v>
+        <v>0.7775000333786011</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,19 +458,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8474999666213989</v>
+        <v>0.8425000309944153</v>
       </c>
       <c r="C3">
-        <v>0.8377500176429749</v>
+        <v>0.8415000438690186</v>
       </c>
       <c r="D3">
-        <v>0.8462499976158142</v>
+        <v>0.8425000309944153</v>
       </c>
       <c r="E3">
-        <v>0.842750072479248</v>
+        <v>0.8472500443458557</v>
       </c>
       <c r="F3">
-        <v>0.8402500152587891</v>
+        <v>0.8375000357627869</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -478,19 +478,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7925633192062378</v>
+        <v>0.8010774850845337</v>
       </c>
       <c r="C4">
-        <v>0.7900019884109497</v>
+        <v>0.7919024229049683</v>
       </c>
       <c r="D4">
-        <v>0.797048807144165</v>
+        <v>0.8207361698150635</v>
       </c>
       <c r="E4">
-        <v>0.7991455793380737</v>
+        <v>0.8211656808853149</v>
       </c>
       <c r="F4">
-        <v>0.7890104055404663</v>
+        <v>0.7915928959846497</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -498,53 +498,59 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8487861156463623</v>
+        <v>0.8468078374862671</v>
       </c>
       <c r="C5">
-        <v>0.8411356806755066</v>
+        <v>0.843259871006012</v>
       </c>
       <c r="D5">
-        <v>0.8500602245330811</v>
+        <v>0.8492092490196228</v>
       </c>
       <c r="E5">
-        <v>0.8441684246063232</v>
+        <v>0.8250664472579956</v>
       </c>
       <c r="F5">
-        <v>0.8333038091659546</v>
+        <v>0.8230729103088379</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>0.5290902853012085</v>
+      </c>
       <c r="C6">
-        <v>0.634706974029541</v>
+        <v>0.7465657591819763</v>
       </c>
       <c r="D6">
-        <v>0.7383272051811218</v>
+        <v>0.7491359710693359</v>
       </c>
       <c r="E6">
-        <v>0.7915273904800415</v>
+        <v>0.8074912428855896</v>
       </c>
       <c r="F6">
-        <v>0.8429089784622192</v>
+        <v>0.7802461385726929</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>0.6302996873855591</v>
+      </c>
       <c r="C7">
-        <v>0.6653846502304077</v>
+        <v>0.8134551048278809</v>
       </c>
       <c r="D7">
-        <v>0.778118908405304</v>
+        <v>0.82331383228302</v>
       </c>
       <c r="E7">
-        <v>0.8440747261047363</v>
+        <v>0.8510632514953613</v>
       </c>
       <c r="F7">
-        <v>0.887890636920929</v>
+        <v>0.8392308950424194</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -552,19 +558,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.8237500190734863</v>
+        <v>0.8135000467300415</v>
       </c>
       <c r="C8">
-        <v>0.6100000143051147</v>
+        <v>0.6082500219345093</v>
       </c>
       <c r="D8">
-        <v>0.4435000121593475</v>
+        <v>0.5239999890327454</v>
       </c>
       <c r="E8">
-        <v>0.4557500183582306</v>
+        <v>0.8652500510215759</v>
       </c>
       <c r="F8">
-        <v>0.4325000047683716</v>
+        <v>0.9072500467300415</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -572,19 +578,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.003500000108033419</v>
+        <v>0.01575000025331974</v>
       </c>
       <c r="C9">
-        <v>0.01675000041723251</v>
+        <v>0.0755000039935112</v>
       </c>
       <c r="D9">
-        <v>0.06550000607967377</v>
+        <v>0.3634999990463257</v>
       </c>
       <c r="E9">
-        <v>0.1880000084638596</v>
+        <v>0.8657500743865967</v>
       </c>
       <c r="F9">
-        <v>0.1730000078678131</v>
+        <v>0.9065000414848328</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -592,19 +598,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.8637380599975586</v>
+        <v>0.7903858423233032</v>
       </c>
       <c r="C10">
-        <v>0.8379562497138977</v>
+        <v>0.7779074311256409</v>
       </c>
       <c r="D10">
-        <v>0.7944158911705017</v>
+        <v>0.7889476418495178</v>
       </c>
       <c r="E10">
-        <v>0.8004390001296997</v>
+        <v>0.8201858997344971</v>
       </c>
       <c r="F10">
-        <v>0.7991958856582642</v>
+        <v>0.826413094997406</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -612,19 +618,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.8334177136421204</v>
+        <v>0.8331082463264465</v>
       </c>
       <c r="C11">
-        <v>0.8307544589042664</v>
+        <v>0.8342833518981934</v>
       </c>
       <c r="D11">
-        <v>0.8332438468933105</v>
-      </c>
-      <c r="E11">
-        <v>0.8426514267921448</v>
-      </c>
-      <c r="F11">
-        <v>0.8354471921920776</v>
+        <v>0.8491634726524353</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -632,19 +632,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.8637380599975586</v>
+        <v>0.790385901927948</v>
       </c>
       <c r="C12">
-        <v>0.8379562497138977</v>
+        <v>0.7779074311256409</v>
       </c>
       <c r="D12">
-        <v>0.7944159507751465</v>
+        <v>0.7889476418495178</v>
       </c>
       <c r="E12">
-        <v>0.8004390001296997</v>
+        <v>0.8201858997344971</v>
       </c>
       <c r="F12">
-        <v>0.7991958856582642</v>
+        <v>0.826413094997406</v>
       </c>
     </row>
   </sheetData>
